--- a/medicine/Enfance/Nadine_Forster/Nadine_Forster.xlsx
+++ b/medicine/Enfance/Nadine_Forster/Nadine_Forster.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nadine Forster, née le 2 février 1931 en Belgique et morte le 30 août 2023 à Neuville-aux-Bois (Loiret), est une peintre, illustratrice, dessinatrice et sculptrice belge, connue pour ses adaptations en livre des héros de la télévision des années 1970 et 1980. 
 </t>
@@ -511,21 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nadine Forster naît le 2 février 1931[1].
-Elle suit une formation artistique à l'Académie royale des beaux-arts de Bruxelles[2]. 
-Dans les années 1960, elle illustre notamment la série de livres pour enfants Le Journal de Véronique[2] écrits par l'écrivaine Maud Frère[3]. Puis, plus tard, des dessins animés comme Arnie l'exploratrice[2]. Ensuite, pendant les deux décennies suivantes, elle réalise de nombreuses pochettes de livres disques, tant pour l’univers de Walt Disney mais également pour des héros d’émissions télévisées pour enfants dont le plus connus est Casimir de L'Île aux enfants[2].
-Au cours de sa carrière, elle dessine aussi les disques albums ou livres d'Ulysse 31, Maya l'Abeille, Tom et Jerry, Astro Boy, Casper le gentil fantôme et Lady Oscar[2]. Elle illustre par ailleurs de nombreuses couvertures des tomes de la Bibliothèque rose[2].
-Corentin
-En bande dessinée, Nadine Forster réalise une version jeunesse de la bande dessinée de Paul Cuvelier : Corentin sur un scénario de Jean Cheville. Quatre volumes paraissent en juillet 1995 dans la collection « Lombard Jeunesse » des éditions Le Lombard[4].
-En 2004, elle met en images Le Roman d'Émilie Jolie, une adaptation du célèbre conte musical de Philippe Chatel, publié aux Éditions Albin Michel[2].
-En outre, elle dispense durant plusieurs années des cours de peinture et de dessin à Bazoches-les-Gallerandes et Aschères[5].
-En mai 2022 se tient une exposition rétrospective à la salle des fêtes de Neuville-aux-Bois[6].
-Mort
-Nadine Forster meurt le 30 août 2023 à Neuville-aux-Bois[7] dans le Loiret à l'âge de 92 ans[2],[5].
-Vie privée
-Nadine Forster demeurait à Aschères-le-Marché, un petit village situé à une vingtaine de kilomètres d'Orléans, depuis le début des années 1980[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nadine Forster naît le 2 février 1931.
+Elle suit une formation artistique à l'Académie royale des beaux-arts de Bruxelles. 
+Dans les années 1960, elle illustre notamment la série de livres pour enfants Le Journal de Véronique écrits par l'écrivaine Maud Frère. Puis, plus tard, des dessins animés comme Arnie l'exploratrice. Ensuite, pendant les deux décennies suivantes, elle réalise de nombreuses pochettes de livres disques, tant pour l’univers de Walt Disney mais également pour des héros d’émissions télévisées pour enfants dont le plus connus est Casimir de L'Île aux enfants.
+Au cours de sa carrière, elle dessine aussi les disques albums ou livres d'Ulysse 31, Maya l'Abeille, Tom et Jerry, Astro Boy, Casper le gentil fantôme et Lady Oscar. Elle illustre par ailleurs de nombreuses couvertures des tomes de la Bibliothèque rose.
 </t>
         </is>
       </c>
@@ -551,14 +556,136 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Corentin</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En bande dessinée, Nadine Forster réalise une version jeunesse de la bande dessinée de Paul Cuvelier : Corentin sur un scénario de Jean Cheville. Quatre volumes paraissent en juillet 1995 dans la collection « Lombard Jeunesse » des éditions Le Lombard.
+En 2004, elle met en images Le Roman d'Émilie Jolie, une adaptation du célèbre conte musical de Philippe Chatel, publié aux Éditions Albin Michel.
+En outre, elle dispense durant plusieurs années des cours de peinture et de dessin à Bazoches-les-Gallerandes et Aschères.
+En mai 2022 se tient une exposition rétrospective à la salle des fêtes de Neuville-aux-Bois.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nadine_Forster</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nadine_Forster</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mort</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nadine Forster meurt le 30 août 2023 à Neuville-aux-Bois dans le Loiret à l'âge de 92 ans,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nadine_Forster</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nadine_Forster</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nadine Forster demeurait à Aschères-le-Marché, un petit village situé à une vingtaine de kilomètres d'Orléans, depuis le début des années 1980.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nadine_Forster</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nadine_Forster</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Illustrations
-Livres pour enfants : Véronique
-(dates des éditions Pierre Tisné)
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Illustrations</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Livres pour enfants : Véronique</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(dates des éditions Pierre Tisné)
 1964 :
 « Le Journal de Véronique 1 : Mon chien, mon cousin et les autres »
 « Le Journal de Véronique 2 : Mon école »
@@ -580,15 +707,86 @@
 1982 : « Le Journal de Véronique  : La Mer »
 19nn : « Le Journal de Véronique  : Odilon, les oreillons »
 Le personnage de Véronique est également présent dans les hebdomadaires pour la jeunesse Lisette et Nade du groupe Bayard-Presse de 1967 à 1972.
-Le Roman d'Émilie Jolie, Philippe Chatel, Éditions Albin Michel, 2004  (ISBN 9782226135919)
-Albums de bande dessinée
-Corentin
-1 Le Départ de la destinée, Le Lombard, coll. « Le Lombard jeunesse », Bruxelles, juillet 1995Scénario : Jean Cheville - Dessin et couleurs : Nadine Forster -  (ISBN 2-87389-012-6)
+Le Roman d'Émilie Jolie, Philippe Chatel, Éditions Albin Michel, 2004  (ISBN 9782226135919)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nadine_Forster</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nadine_Forster</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Albums de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Corentin</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1 Le Départ de la destinée, Le Lombard, coll. « Le Lombard jeunesse », Bruxelles, juillet 1995Scénario : Jean Cheville - Dessin et couleurs : Nadine Forster -  (ISBN 2-87389-012-6)
 2 Danger à Messine, Le Lombard, coll. « Le Lombard jeunesse », Bruxelles, juillet 1995Scénario : Jean Cheville - Dessin et couleurs : Nadine Forster -  (ISBN 2-87389-013-4)
 3 La Colère de Zeus, Le Lombard, coll. « Le Lombard jeunesse », Bruxelles, juillet 1995Scénario : Jean Cheville - Dessin et couleurs : Nadine Forster -  (ISBN 2-87389-014-2)
-4 Prisonniers du Caire, Le Lombard, coll. « Le Lombard jeunesse », Bruxelles, juillet 1995Scénario : Jean Cheville - Dessin et couleurs : Nadine Forster -  (ISBN 2-87389-015-0)
-Filmographie
-1962 : La Vénus d'Ille[8], actrice, long métrage de Michel Babut du Marès.</t>
+4 Prisonniers du Caire, Le Lombard, coll. « Le Lombard jeunesse », Bruxelles, juillet 1995Scénario : Jean Cheville - Dessin et couleurs : Nadine Forster -  (ISBN 2-87389-015-0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Nadine_Forster</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nadine_Forster</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1962 : La Vénus d'Ille, actrice, long métrage de Michel Babut du Marès.</t>
         </is>
       </c>
     </row>
